--- a/biology/Botanique/Callichilia_monopodialis/Callichilia_monopodialis.xlsx
+++ b/biology/Botanique/Callichilia_monopodialis/Callichilia_monopodialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callichilia monopodialis est une espèce d'arbustes de la famille des Apocynaceae[2], endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callichilia monopodialis est une espèce d'arbustes de la famille des Apocynaceae, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste à fleurs blanches courbées[3]et à branches minces[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste à fleurs blanches courbéeset à branches minces.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez rare, l'espèce est endémique du Cameroun[5], où on la trouve dans les forêts sub-montagnardes, à des altitudes allant de  200 à 950 m[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez rare, l'espèce est endémique du Cameroun, où on la trouve dans les forêts sub-montagnardes, à des altitudes allant de  200 à 950 m.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été évaluée comme vulnérable dans quelques sites à cause des activités agricoles et de l'expansion du développement urbain[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été évaluée comme vulnérable dans quelques sites à cause des activités agricoles et de l'expansion du développement urbain.
 </t>
         </is>
       </c>
